--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-09-16 16:01:08.556076 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-09-23 09:16:16.588336 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="E10" s="5">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="F10" s="5">
-        <v>45916</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45916.6674600827</v>
+        <v>45923.38630303881</v>
       </c>
       <c r="E11" s="6">
-        <v>45916.6674600827</v>
+        <v>45923.38630303881</v>
       </c>
       <c r="F11" s="6">
-        <v>45916.6674600827</v>
+        <v>45923.38630303881</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.6674600828240741</v>
+        <v>0.3863030390277778</v>
       </c>
       <c r="E12" s="7">
-        <v>0.6674600828240741</v>
+        <v>0.3863030390277778</v>
       </c>
       <c r="F12" s="7">
-        <v>0.6674600828240741</v>
+        <v>0.3863030390277778</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-09-23 09:16:16.588336 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-09-23 11:08:49.245911 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45923.38630303881</v>
+        <v>45923.46445879832</v>
       </c>
       <c r="E11" s="6">
-        <v>45923.38630303881</v>
+        <v>45923.46445879832</v>
       </c>
       <c r="F11" s="6">
-        <v>45923.38630303881</v>
+        <v>45923.46445879832</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.3863030390277778</v>
+        <v>0.4644587985416667</v>
       </c>
       <c r="E12" s="7">
-        <v>0.3863030390277778</v>
+        <v>0.4644587985416667</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3863030390277778</v>
+        <v>0.4644587985416667</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,7 +842,7 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
@@ -851,7 +851,7 @@
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-09-23 11:08:49.245911 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 08:03:59.959949 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45923</v>
+        <v>45951</v>
       </c>
       <c r="E10" s="5">
-        <v>45923</v>
+        <v>45951</v>
       </c>
       <c r="F10" s="5">
-        <v>45923</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45923.46445879832</v>
+        <v>45951.33611057996</v>
       </c>
       <c r="E11" s="6">
-        <v>45923.46445879832</v>
+        <v>45951.33611057996</v>
       </c>
       <c r="F11" s="6">
-        <v>45923.46445879832</v>
+        <v>45951.33611057996</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.4644587985416667</v>
+        <v>0.3361105801736111</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4644587985416667</v>
+        <v>0.3361105801736111</v>
       </c>
       <c r="F12" s="7">
-        <v>0.4644587985416667</v>
+        <v>0.3361105801736111</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 08:03:59.959949 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 08:18:05.335660 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45951.33611057996</v>
+        <v>45951.34589502397</v>
       </c>
       <c r="E11" s="6">
-        <v>45951.33611057996</v>
+        <v>45951.34589502397</v>
       </c>
       <c r="F11" s="6">
-        <v>45951.33611057996</v>
+        <v>45951.34589502397</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.3361105801736111</v>
+        <v>0.3458950241782408</v>
       </c>
       <c r="E12" s="7">
-        <v>0.3361105801736111</v>
+        <v>0.3458950241782408</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3361105801736111</v>
+        <v>0.3458950241782408</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 08:18:05.335660 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 09:41:18.992781 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45951.34589502397</v>
+        <v>45951.40369197971</v>
       </c>
       <c r="E11" s="6">
-        <v>45951.34589502397</v>
+        <v>45951.40369197971</v>
       </c>
       <c r="F11" s="6">
-        <v>45951.34589502397</v>
+        <v>45951.40369197971</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.3458950241782408</v>
+        <v>0.4036919799421296</v>
       </c>
       <c r="E12" s="7">
-        <v>0.3458950241782408</v>
+        <v>0.4036919799421296</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3458950241782408</v>
+        <v>0.4036919799421296</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 09:41:18.992781 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 11:34:53.473276 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45951.40369197971</v>
+        <v>45951.48256328143</v>
       </c>
       <c r="E11" s="6">
-        <v>45951.40369197971</v>
+        <v>45951.48256328143</v>
       </c>
       <c r="F11" s="6">
-        <v>45951.40369197971</v>
+        <v>45951.48256328143</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.4036919799421296</v>
+        <v>0.4825632816550927</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4036919799421296</v>
+        <v>0.4825632816550927</v>
       </c>
       <c r="F12" s="7">
-        <v>0.4036919799421296</v>
+        <v>0.4825632816550927</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 11:34:53.473276 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 11:57:39.198454 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45951.48256328143</v>
+        <v>45951.49837028696</v>
       </c>
       <c r="E11" s="6">
-        <v>45951.48256328143</v>
+        <v>45951.49837028696</v>
       </c>
       <c r="F11" s="6">
-        <v>45951.48256328143</v>
+        <v>45951.49837028696</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.4825632816550927</v>
+        <v>0.498370287175926</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4825632816550927</v>
+        <v>0.498370287175926</v>
       </c>
       <c r="F12" s="7">
-        <v>0.4825632816550927</v>
+        <v>0.498370287175926</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -848,10 +848,10 @@
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 11:57:39.198454 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-22 08:30:45.402347 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="E10" s="5">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="F10" s="5">
-        <v>45951</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45951.49837028696</v>
+        <v>45952.3546920896</v>
       </c>
       <c r="E11" s="6">
-        <v>45951.49837028696</v>
+        <v>45952.3546920896</v>
       </c>
       <c r="F11" s="6">
-        <v>45951.49837028696</v>
+        <v>45952.3546920896</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.498370287175926</v>
+        <v>0.3546920898148148</v>
       </c>
       <c r="E12" s="7">
-        <v>0.498370287175926</v>
+        <v>0.3546920898148148</v>
       </c>
       <c r="F12" s="7">
-        <v>0.498370287175926</v>
+        <v>0.3546920898148148</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,10 +842,10 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"boolean"</formula>

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-22 08:30:45.402347 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-22 16:05:29.717239 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -141,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-dd-mm"/>
-    <numFmt numFmtId="165" formatCode="yyyy-dd-mmThh:mm:ss&quot;+00:00&quot;"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-ddThh:mm:ss&quot;+00:00&quot;"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss&quot;+00:00&quot;"/>
-    <numFmt numFmtId="167" formatCode="&quot;P&quot;[h]:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="&quot;PT&quot;h&quot;H&quot;mm&quot;M&quot;ss&quot;S&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45952.3546920896</v>
+        <v>45952.67048277515</v>
       </c>
       <c r="E11" s="6">
-        <v>45952.3546920896</v>
+        <v>45952.67048277515</v>
       </c>
       <c r="F11" s="6">
-        <v>45952.3546920896</v>
+        <v>45952.67048277515</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.3546920898148148</v>
+        <v>0.6704827753472222</v>
       </c>
       <c r="E12" s="7">
-        <v>0.3546920898148148</v>
+        <v>0.6704827753472222</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3546920898148148</v>
+        <v>0.6704827753472222</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,13 +842,13 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-22 16:05:29.717239 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 08:56:35.463905 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="E10" s="5">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="F10" s="5">
-        <v>45952</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45952.67048277515</v>
+        <v>45953.37263262019</v>
       </c>
       <c r="E11" s="6">
-        <v>45952.67048277515</v>
+        <v>45953.37263262019</v>
       </c>
       <c r="F11" s="6">
-        <v>45952.67048277515</v>
+        <v>45953.37263262019</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.6704827753472222</v>
+        <v>0.3726326204050926</v>
       </c>
       <c r="E12" s="7">
-        <v>0.6704827753472222</v>
+        <v>0.3726326204050926</v>
       </c>
       <c r="F12" s="7">
-        <v>0.6704827753472222</v>
+        <v>0.3726326204050926</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,13 +842,13 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 08:56:35.463905 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 09:11:17.468430 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45953.37263262019</v>
+        <v>45953.38284100194</v>
       </c>
       <c r="E11" s="6">
-        <v>45953.37263262019</v>
+        <v>45953.38284100194</v>
       </c>
       <c r="F11" s="6">
-        <v>45953.37263262019</v>
+        <v>45953.38284100194</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.3726326204050926</v>
+        <v>0.3828410021759259</v>
       </c>
       <c r="E12" s="7">
-        <v>0.3726326204050926</v>
+        <v>0.3828410021759259</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3726326204050926</v>
+        <v>0.3828410021759259</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -845,13 +845,13 @@
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 09:11:17.468430 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 10:36:41.806601 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45953.38284100194</v>
+        <v>45953.44215047267</v>
       </c>
       <c r="E11" s="6">
-        <v>45953.38284100194</v>
+        <v>45953.44215047267</v>
       </c>
       <c r="F11" s="6">
-        <v>45953.38284100194</v>
+        <v>45953.44215047267</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.3828410021759259</v>
+        <v>0.4421504728819445</v>
       </c>
       <c r="E12" s="7">
-        <v>0.3828410021759259</v>
+        <v>0.4421504728819445</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3828410021759259</v>
+        <v>0.4421504728819445</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 10:36:41.806601 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 10:39:05.830785 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45953.44215047267</v>
+        <v>45953.44381741915</v>
       </c>
       <c r="E11" s="6">
-        <v>45953.44215047267</v>
+        <v>45953.44381741915</v>
       </c>
       <c r="F11" s="6">
-        <v>45953.44215047267</v>
+        <v>45953.44381741915</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.4421504728819445</v>
+        <v>0.4438174193634259</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4421504728819445</v>
+        <v>0.4438174193634259</v>
       </c>
       <c r="F12" s="7">
-        <v>0.4421504728819445</v>
+        <v>0.4438174193634259</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -845,10 +845,10 @@
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 10:39:05.830785 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-27 12:46:23.739591 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="E10" s="5">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="F10" s="5">
-        <v>45953</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45953.44381741915</v>
+        <v>45957.53221914006</v>
       </c>
       <c r="E11" s="6">
-        <v>45953.44381741915</v>
+        <v>45957.53221914006</v>
       </c>
       <c r="F11" s="6">
-        <v>45953.44381741915</v>
+        <v>45957.53221914006</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.4438174193634259</v>
+        <v>0.5322191402777777</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4438174193634259</v>
+        <v>0.5322191402777777</v>
       </c>
       <c r="F12" s="7">
-        <v>0.4438174193634259</v>
+        <v>0.5322191402777777</v>
       </c>
     </row>
     <row r="13" spans="1:6">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-27 12:46:23.739591 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 08:49:20.411512 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="E10" s="5">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="F10" s="5">
-        <v>45957</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45957.53221914006</v>
+        <v>45958.36759728625</v>
       </c>
       <c r="E11" s="6">
-        <v>45957.53221914006</v>
+        <v>45958.36759728625</v>
       </c>
       <c r="F11" s="6">
-        <v>45957.53221914006</v>
+        <v>45958.36759728625</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.5322191402777777</v>
+        <v>0.3675972864583333</v>
       </c>
       <c r="E12" s="7">
-        <v>0.5322191402777777</v>
+        <v>0.3675972864583333</v>
       </c>
       <c r="F12" s="7">
-        <v>0.5322191402777777</v>
+        <v>0.3675972864583333</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 08:49:20.411512 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 09:09:30.654063 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45958.36759728625</v>
+        <v>45958.38160472435</v>
       </c>
       <c r="E11" s="6">
-        <v>45958.36759728625</v>
+        <v>45958.38160472435</v>
       </c>
       <c r="F11" s="6">
-        <v>45958.36759728625</v>
+        <v>45958.38160472435</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.3675972864583333</v>
+        <v>0.3816047245601851</v>
       </c>
       <c r="E12" s="7">
-        <v>0.3675972864583333</v>
+        <v>0.3816047245601851</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3675972864583333</v>
+        <v>0.3816047245601851</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -845,13 +845,13 @@
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 09:09:30.654063 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 09:13:49.415816 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45958.38160472435</v>
+        <v>45958.38459965795</v>
       </c>
       <c r="E11" s="6">
-        <v>45958.38160472435</v>
+        <v>45958.38459965795</v>
       </c>
       <c r="F11" s="6">
-        <v>45958.38160472435</v>
+        <v>45958.38459965795</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.3816047245601851</v>
+        <v>0.3845996581365741</v>
       </c>
       <c r="E12" s="7">
-        <v>0.3816047245601851</v>
+        <v>0.3845996581365741</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3816047245601851</v>
+        <v>0.3845996581365741</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 09:13:49.415816 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 10:53:08.152713 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45958.38459965795</v>
+        <v>45958.45356651377</v>
       </c>
       <c r="E11" s="6">
-        <v>45958.38459965795</v>
+        <v>45958.45356651377</v>
       </c>
       <c r="F11" s="6">
-        <v>45958.38459965795</v>
+        <v>45958.45356651377</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.3845996581365741</v>
+        <v>0.4535665140046296</v>
       </c>
       <c r="E12" s="7">
-        <v>0.3845996581365741</v>
+        <v>0.4535665140046296</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3845996581365741</v>
+        <v>0.4535665140046296</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 10:53:08.152713 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 14:45:23.054337 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45958.45356651377</v>
+        <v>45958.61485009646</v>
       </c>
       <c r="E11" s="6">
-        <v>45958.45356651377</v>
+        <v>45958.61485009646</v>
       </c>
       <c r="F11" s="6">
-        <v>45958.45356651377</v>
+        <v>45958.61485009646</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.4535665140046296</v>
+        <v>0.6148500971296296</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4535665140046296</v>
+        <v>0.6148500971296296</v>
       </c>
       <c r="F12" s="7">
-        <v>0.4535665140046296</v>
+        <v>0.6148500971296296</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 14:45:23.054337 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:24:51.063244 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45958.61485009646</v>
+        <v>45958.64225761175</v>
       </c>
       <c r="E11" s="6">
-        <v>45958.61485009646</v>
+        <v>45958.64225761175</v>
       </c>
       <c r="F11" s="6">
-        <v>45958.61485009646</v>
+        <v>45958.64225761175</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.6148500971296296</v>
+        <v>0.6422576119328703</v>
       </c>
       <c r="E12" s="7">
-        <v>0.6148500971296296</v>
+        <v>0.6422576119328703</v>
       </c>
       <c r="F12" s="7">
-        <v>0.6148500971296296</v>
+        <v>0.6422576119328703</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,10 +842,10 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:24:51.063244 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:27:17.678805 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45958.64225761175</v>
+        <v>45958.64395454742</v>
       </c>
       <c r="E11" s="6">
-        <v>45958.64225761175</v>
+        <v>45958.64395454742</v>
       </c>
       <c r="F11" s="6">
-        <v>45958.64225761175</v>
+        <v>45958.64395454742</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.6422576119328703</v>
+        <v>0.6439545476388889</v>
       </c>
       <c r="E12" s="7">
-        <v>0.6422576119328703</v>
+        <v>0.6439545476388889</v>
       </c>
       <c r="F12" s="7">
-        <v>0.6422576119328703</v>
+        <v>0.6439545476388889</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -845,10 +845,10 @@
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:27:17.678805 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:53:37.044320 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45958.64395454742</v>
+        <v>45958.66223424018</v>
       </c>
       <c r="E11" s="6">
-        <v>45958.64395454742</v>
+        <v>45958.66223424018</v>
       </c>
       <c r="F11" s="6">
-        <v>45958.64395454742</v>
+        <v>45958.66223424018</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.6439545476388889</v>
+        <v>0.6622342404050926</v>
       </c>
       <c r="E12" s="7">
-        <v>0.6439545476388889</v>
+        <v>0.6622342404050926</v>
       </c>
       <c r="F12" s="7">
-        <v>0.6439545476388889</v>
+        <v>0.6622342404050926</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:53:37.044320 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:55:32.508195 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45958.66223424018</v>
+        <v>45958.66357062846</v>
       </c>
       <c r="E11" s="6">
-        <v>45958.66223424018</v>
+        <v>45958.66357062846</v>
       </c>
       <c r="F11" s="6">
-        <v>45958.66223424018</v>
+        <v>45958.66357062846</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.6622342404050926</v>
+        <v>0.6635706286921296</v>
       </c>
       <c r="E12" s="7">
-        <v>0.6622342404050926</v>
+        <v>0.6635706286921296</v>
       </c>
       <c r="F12" s="7">
-        <v>0.6622342404050926</v>
+        <v>0.6635706286921296</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+  <si>
+    <t>#section</t>
+  </si>
+  <si>
+    <t>#title</t>
+  </si>
+  <si>
+    <t>#name</t>
   </si>
   <si>
     <t>Column3</t>
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:55:32.508195 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 11:49:34.963992 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -263,9 +263,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F14" totalsRowShown="0">
   <autoFilter ref="A2:F14"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="section"/>
-    <tableColumn id="2" name="title"/>
-    <tableColumn id="3" name="name"/>
+    <tableColumn id="1" name="#section"/>
+    <tableColumn id="2" name="#title"/>
+    <tableColumn id="3" name="#name"/>
     <tableColumn id="4" name="Column3"/>
     <tableColumn id="5" name="Column4"/>
     <tableColumn id="6" name="Column5"/>
@@ -568,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="20" bestFit="1" customWidth="1"/>
@@ -580,13 +580,13 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="E10" s="5">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="F10" s="5">
-        <v>45958</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45958.66357062846</v>
+        <v>45959.49276572079</v>
       </c>
       <c r="E11" s="6">
-        <v>45958.66357062846</v>
+        <v>45959.49276572079</v>
       </c>
       <c r="F11" s="6">
-        <v>45958.66357062846</v>
+        <v>45959.49276572079</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.6635706286921296</v>
+        <v>0.4927657209837963</v>
       </c>
       <c r="E12" s="7">
-        <v>0.6635706286921296</v>
+        <v>0.4927657209837963</v>
       </c>
       <c r="F12" s="7">
-        <v>0.6635706286921296</v>
+        <v>0.4927657209837963</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 11:49:34.963992 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 12:23:01.759686 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45959.49276572079</v>
+        <v>45959.51599252147</v>
       </c>
       <c r="E11" s="6">
-        <v>45959.49276572079</v>
+        <v>45959.51599252147</v>
       </c>
       <c r="F11" s="6">
-        <v>45959.49276572079</v>
+        <v>45959.51599252147</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.4927657209837963</v>
+        <v>0.5159925216898148</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4927657209837963</v>
+        <v>0.5159925216898148</v>
       </c>
       <c r="F12" s="7">
-        <v>0.4927657209837963</v>
+        <v>0.5159925216898148</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 12:23:01.759686 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 12:24:45.740354 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45959.51599252147</v>
+        <v>45959.51719599987</v>
       </c>
       <c r="E11" s="6">
-        <v>45959.51599252147</v>
+        <v>45959.51719599987</v>
       </c>
       <c r="F11" s="6">
-        <v>45959.51599252147</v>
+        <v>45959.51719599987</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.5159925216898148</v>
+        <v>0.5171960000925926</v>
       </c>
       <c r="E12" s="7">
-        <v>0.5159925216898148</v>
+        <v>0.5171960000925926</v>
       </c>
       <c r="F12" s="7">
-        <v>0.5159925216898148</v>
+        <v>0.5171960000925926</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,13 +842,13 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 12:24:45.740354 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 13:05:05.569499 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45959.51719599987</v>
+        <v>45959.54520328404</v>
       </c>
       <c r="E11" s="6">
-        <v>45959.51719599987</v>
+        <v>45959.54520328404</v>
       </c>
       <c r="F11" s="6">
-        <v>45959.51719599987</v>
+        <v>45959.54520328404</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.5171960000925926</v>
+        <v>0.5452032842361111</v>
       </c>
       <c r="E12" s="7">
-        <v>0.5171960000925926</v>
+        <v>0.5452032842361111</v>
       </c>
       <c r="F12" s="7">
-        <v>0.5171960000925926</v>
+        <v>0.5452032842361111</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 13:05:05.569499 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-30 13:30:36.894065 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="E10" s="5">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="F10" s="5">
-        <v>45959</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45959.54520328404</v>
+        <v>45960.56292694524</v>
       </c>
       <c r="E11" s="6">
-        <v>45959.54520328404</v>
+        <v>45960.56292694524</v>
       </c>
       <c r="F11" s="6">
-        <v>45959.54520328404</v>
+        <v>45960.56292694524</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.5452032842361111</v>
+        <v>0.562926945462963</v>
       </c>
       <c r="E12" s="7">
-        <v>0.5452032842361111</v>
+        <v>0.562926945462963</v>
       </c>
       <c r="F12" s="7">
-        <v>0.5452032842361111</v>
+        <v>0.562926945462963</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"datetime"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-30 13:30:36.894065 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-03 12:51:16.493359 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="E10" s="5">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="F10" s="5">
-        <v>45960</v>
+        <v>45964</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45960.56292694524</v>
+        <v>45964.53560749324</v>
       </c>
       <c r="E11" s="6">
-        <v>45960.56292694524</v>
+        <v>45964.53560749324</v>
       </c>
       <c r="F11" s="6">
-        <v>45960.56292694524</v>
+        <v>45964.53560749324</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.562926945462963</v>
+        <v>0.5356074934490741</v>
       </c>
       <c r="E12" s="7">
-        <v>0.562926945462963</v>
+        <v>0.5356074934490741</v>
       </c>
       <c r="F12" s="7">
-        <v>0.562926945462963</v>
+        <v>0.5356074934490741</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,13 +842,13 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-03 12:51:16.493359 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-03 14:58:41.894715 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45964.53560749324</v>
+        <v>45964.62409593197</v>
       </c>
       <c r="E11" s="6">
-        <v>45964.53560749324</v>
+        <v>45964.62409593197</v>
       </c>
       <c r="F11" s="6">
-        <v>45964.53560749324</v>
+        <v>45964.62409593197</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.5356074934490741</v>
+        <v>0.6240959321875</v>
       </c>
       <c r="E12" s="7">
-        <v>0.5356074934490741</v>
+        <v>0.6240959321875</v>
       </c>
       <c r="F12" s="7">
-        <v>0.5356074934490741</v>
+        <v>0.6240959321875</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-03 14:58:41.894715 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-04 14:52:06.592084 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="E10" s="5">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="F10" s="5">
-        <v>45964</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45964.62409593197</v>
+        <v>45965.6195206722</v>
       </c>
       <c r="E11" s="6">
-        <v>45964.62409593197</v>
+        <v>45965.6195206722</v>
       </c>
       <c r="F11" s="6">
-        <v>45964.62409593197</v>
+        <v>45965.6195206722</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.6240959321875</v>
+        <v>0.6195206724305555</v>
       </c>
       <c r="E12" s="7">
-        <v>0.6240959321875</v>
+        <v>0.6195206724305555</v>
       </c>
       <c r="F12" s="7">
-        <v>0.6240959321875</v>
+        <v>0.6195206724305555</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -845,13 +845,13 @@
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-04 14:52:06.592084 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-05 09:42:01.189674 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="E10" s="5">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="F10" s="5">
-        <v>45965</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45965.6195206722</v>
+        <v>45966.40418036842</v>
       </c>
       <c r="E11" s="6">
-        <v>45965.6195206722</v>
+        <v>45966.40418036842</v>
       </c>
       <c r="F11" s="6">
-        <v>45965.6195206722</v>
+        <v>45966.40418036842</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.6195206724305555</v>
+        <v>0.4041803686226852</v>
       </c>
       <c r="E12" s="7">
-        <v>0.6195206724305555</v>
+        <v>0.4041803686226852</v>
       </c>
       <c r="F12" s="7">
-        <v>0.6195206724305555</v>
+        <v>0.4041803686226852</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-05 09:42:01.189674 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-07 10:26:03.441293 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="E10" s="5">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="F10" s="5">
-        <v>45966</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45966.40418036842</v>
+        <v>45968.43476198412</v>
       </c>
       <c r="E11" s="6">
-        <v>45966.40418036842</v>
+        <v>45968.43476198412</v>
       </c>
       <c r="F11" s="6">
-        <v>45966.40418036842</v>
+        <v>45968.43476198412</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.4041803686226852</v>
+        <v>0.4347619843402778</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4041803686226852</v>
+        <v>0.4347619843402778</v>
       </c>
       <c r="F12" s="7">
-        <v>0.4041803686226852</v>
+        <v>0.4347619843402778</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-07 10:26:03.441293 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-07 10:36:46.284736 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45968.43476198412</v>
+        <v>45968.44220230055</v>
       </c>
       <c r="E11" s="6">
-        <v>45968.43476198412</v>
+        <v>45968.44220230055</v>
       </c>
       <c r="F11" s="6">
-        <v>45968.43476198412</v>
+        <v>45968.44220230055</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.4347619843402778</v>
+        <v>0.4422023007407407</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4347619843402778</v>
+        <v>0.4422023007407407</v>
       </c>
       <c r="F12" s="7">
-        <v>0.4347619843402778</v>
+        <v>0.4422023007407407</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -845,13 +845,13 @@
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-07 10:36:46.284736 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-07 15:38:14.201502 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45968.44220230055</v>
+        <v>45968.65155319035</v>
       </c>
       <c r="E11" s="6">
-        <v>45968.44220230055</v>
+        <v>45968.65155319035</v>
       </c>
       <c r="F11" s="6">
-        <v>45968.44220230055</v>
+        <v>45968.65155319035</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.4422023007407407</v>
+        <v>0.6515531905555555</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4422023007407407</v>
+        <v>0.6515531905555555</v>
       </c>
       <c r="F12" s="7">
-        <v>0.4422023007407407</v>
+        <v>0.6515531905555555</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-07 15:38:14.201502 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-12 11:29:21.032858 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45968</v>
+        <v>45973</v>
       </c>
       <c r="E10" s="5">
-        <v>45968</v>
+        <v>45973</v>
       </c>
       <c r="F10" s="5">
-        <v>45968</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45968.65155319035</v>
+        <v>45973.47871558923</v>
       </c>
       <c r="E11" s="6">
-        <v>45968.65155319035</v>
+        <v>45973.47871558923</v>
       </c>
       <c r="F11" s="6">
-        <v>45968.65155319035</v>
+        <v>45973.47871558923</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.6515531905555555</v>
+        <v>0.4787155894560185</v>
       </c>
       <c r="E12" s="7">
-        <v>0.6515531905555555</v>
+        <v>0.4787155894560185</v>
       </c>
       <c r="F12" s="7">
-        <v>0.6515531905555555</v>
+        <v>0.4787155894560185</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -845,13 +845,13 @@
       <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-12 11:29:21.032858 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-12 11:38:44.807024 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45973.47871558923</v>
+        <v>45973.48524075303</v>
       </c>
       <c r="E11" s="6">
-        <v>45973.47871558923</v>
+        <v>45973.48524075303</v>
       </c>
       <c r="F11" s="6">
-        <v>45973.47871558923</v>
+        <v>45973.48524075303</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.4787155894560185</v>
+        <v>0.4852407532523148</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4787155894560185</v>
+        <v>0.4852407532523148</v>
       </c>
       <c r="F12" s="7">
-        <v>0.4787155894560185</v>
+        <v>0.4852407532523148</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>#section</t>
   </si>
@@ -133,7 +133,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-12 11:38:44.807024 - DatamodelUrl=None</t>
+    <t>#To enter a numeric value in a string-type field, prefix the value with an apostrophe (') to ensure it is treated as text.</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-24 15:02:32.803477 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -217,10 +220,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,8 +274,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F14" totalsRowShown="0">
-  <autoFilter ref="A2:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:F15" totalsRowShown="0">
+  <autoFilter ref="A3:F15"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#section"/>
     <tableColumn id="2" name="#title"/>
@@ -559,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -576,47 +590,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -624,18 +618,18 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
         <v>3</v>
       </c>
     </row>
@@ -644,39 +638,39 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>1.5</v>
-      </c>
-      <c r="E5">
-        <v>2.5</v>
-      </c>
-      <c r="F5">
-        <v>3.5</v>
+        <v>28</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -684,19 +678,19 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -704,59 +698,59 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5">
-        <v>45973</v>
-      </c>
-      <c r="E10" s="5">
-        <v>45973</v>
-      </c>
-      <c r="F10" s="5">
-        <v>45973</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -764,19 +758,19 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="6">
-        <v>45973.48524075303</v>
+        <v>45985</v>
       </c>
       <c r="E11" s="6">
-        <v>45973.48524075303</v>
+        <v>45985</v>
       </c>
       <c r="F11" s="6">
-        <v>45973.48524075303</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -784,19 +778,19 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>0.4852407532523148</v>
+        <v>45985.62676849171</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4852407532523148</v>
+        <v>45985.62676849171</v>
       </c>
       <c r="F12" s="7">
-        <v>0.4852407532523148</v>
+        <v>45985.62676849171</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -804,68 +798,88 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8">
-        <v>0.1062847222222222</v>
+        <v>0.6267684919444444</v>
       </c>
       <c r="E13" s="8">
-        <v>0.1062847222222222</v>
+        <v>0.6267684919444444</v>
       </c>
       <c r="F13" s="8">
-        <v>0.1062847222222222</v>
+        <v>0.6267684919444444</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.1062847222222222</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.1062847222222222</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.1062847222222222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14">
+      <c r="D15" s="5">
         <v>1.5</v>
       </c>
-      <c r="E14">
+      <c r="E15" s="5">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="F15" s="5">
         <v>10.5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:A15">
+  <conditionalFormatting sqref="A4:A16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="D4:F4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="D5:F5">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="D7:F7">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="D8:F8">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="D8:F8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="D9:F9">
       <formula1>"red,green,blue"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="D9:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="D10:F10">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>#section</t>
   </si>
@@ -133,10 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#To enter a numeric value in a string-type field, prefix the value with an apostrophe (') to ensure it is treated as text.</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-24 15:02:32.803477 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-24 15:14:57.879263 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -274,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:F15" totalsRowShown="0">
-  <autoFilter ref="A3:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F14" totalsRowShown="0">
+  <autoFilter ref="A2:F14"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#section"/>
     <tableColumn id="2" name="#title"/>
@@ -573,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -590,27 +587,47 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="5">
         <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -618,16 +635,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="5">
         <v>3</v>
@@ -638,39 +655,39 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F5" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3.5</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -678,19 +695,19 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -698,59 +715,59 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="b">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45985</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45985</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45985</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -758,19 +775,19 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6">
-        <v>45985</v>
-      </c>
-      <c r="E11" s="6">
-        <v>45985</v>
-      </c>
-      <c r="F11" s="6">
-        <v>45985</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="7">
+        <v>45985.63539205571</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45985.63539205571</v>
+      </c>
+      <c r="F11" s="7">
+        <v>45985.63539205571</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -778,19 +795,19 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="7">
-        <v>45985.62676849171</v>
-      </c>
-      <c r="E12" s="7">
-        <v>45985.62676849171</v>
-      </c>
-      <c r="F12" s="7">
-        <v>45985.62676849171</v>
+        <v>36</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.6353920559143519</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.6353920559143519</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.6353920559143519</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -798,88 +815,68 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.6267684919444444</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.6267684919444444</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.6267684919444444</v>
+        <v>37</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.1062847222222222</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.1062847222222222</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.1062847222222222</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.1062847222222222</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.1062847222222222</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0.1062847222222222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D14" s="5">
         <v>1.5</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E14" s="5">
         <v>5</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F14" s="5">
         <v>10.5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A16">
+  <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="D5:F5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="D4:F4">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="D8:F8">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="D7:F7">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="D9:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="D8:F8">
       <formula1>"red,green,blue"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="D10:F10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="D9:F9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-24 15:14:57.879263 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-24 15:19:53.521531 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -781,13 +781,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>45985.63539205571</v>
+        <v>45985.63881383801</v>
       </c>
       <c r="E11" s="7">
-        <v>45985.63539205571</v>
+        <v>45985.63881383801</v>
       </c>
       <c r="F11" s="7">
-        <v>45985.63539205571</v>
+        <v>45985.63881383801</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -801,13 +801,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="8">
-        <v>0.6353920559143519</v>
+        <v>0.6388138382407408</v>
       </c>
       <c r="E12" s="8">
-        <v>0.6353920559143519</v>
+        <v>0.6388138382407408</v>
       </c>
       <c r="F12" s="8">
-        <v>0.6353920559143519</v>
+        <v>0.6388138382407408</v>
       </c>
     </row>
     <row r="13" spans="1:6">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-24 15:19:53.521531 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-12-05 11:58:46.662078 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -761,13 +761,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="6">
-        <v>45985</v>
+        <v>45996</v>
       </c>
       <c r="E10" s="6">
-        <v>45985</v>
+        <v>45996</v>
       </c>
       <c r="F10" s="6">
-        <v>45985</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -781,13 +781,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>45985.63881383801</v>
+        <v>45996.49915111715</v>
       </c>
       <c r="E11" s="7">
-        <v>45985.63881383801</v>
+        <v>45996.49915111715</v>
       </c>
       <c r="F11" s="7">
-        <v>45985.63881383801</v>
+        <v>45996.49915111715</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -801,13 +801,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="8">
-        <v>0.6388138382407408</v>
+        <v>0.4991511173611112</v>
       </c>
       <c r="E12" s="8">
-        <v>0.6388138382407408</v>
+        <v>0.4991511173611112</v>
       </c>
       <c r="F12" s="8">
-        <v>0.6388138382407408</v>
+        <v>0.4991511173611112</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -853,16 +853,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-t.xlsx
+++ b/xl/test-t.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-12-05 11:58:46.662078 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-12-05 12:00:00.586716 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -781,13 +781,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>45996.49915111715</v>
+        <v>45996.50000672592</v>
       </c>
       <c r="E11" s="7">
-        <v>45996.49915111715</v>
+        <v>45996.50000672592</v>
       </c>
       <c r="F11" s="7">
-        <v>45996.49915111715</v>
+        <v>45996.50000672592</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -801,13 +801,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="8">
-        <v>0.4991511173611112</v>
+        <v>0.5000067261226852</v>
       </c>
       <c r="E12" s="8">
-        <v>0.4991511173611112</v>
+        <v>0.5000067261226852</v>
       </c>
       <c r="F12" s="8">
-        <v>0.4991511173611112</v>
+        <v>0.5000067261226852</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -853,16 +853,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
